--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value671.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value671.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.676587038782197</v>
+        <v>2.071837902069092</v>
       </c>
       <c r="B1">
-        <v>1.801865374920426</v>
+        <v>2.473607778549194</v>
       </c>
       <c r="C1">
-        <v>2.027668334028936</v>
+        <v>2.573086500167847</v>
       </c>
       <c r="D1">
-        <v>3.139469069519491</v>
+        <v>3.33726978302002</v>
       </c>
       <c r="E1">
-        <v>1.991248885589764</v>
+        <v>0.9749209880828857</v>
       </c>
     </row>
   </sheetData>
